--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B9A1D-1549-4C9A-A3CD-E0D4BCB97A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B035F-2E80-4676-BF9B-62AE07507033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{A3519AFF-2F0C-4387-8719-AC30114D91FE}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{55C797DF-ADA3-4602-A211-216FE3EA95CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AAA603-BEB5-4E0A-A400-A4B9F02D7818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5CD10-CF14-4584-863B-8A4A163F5453}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>180.3407445583467</v>
+        <v>180.34256231243154</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037B035F-2E80-4676-BF9B-62AE07507033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF22941-3EF9-4637-8511-FF30AFAEA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{55C797DF-ADA3-4602-A211-216FE3EA95CC}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{1D51ABE0-8786-479C-8D47-0E65233995DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5CD10-CF14-4584-863B-8A4A163F5453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E450A56-5033-4DBA-9F9B-A7159EC03195}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>180.34256231243154</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF22941-3EF9-4637-8511-FF30AFAEA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B361E8AE-B989-4829-B28D-CB2453A16D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{1D51ABE0-8786-479C-8D47-0E65233995DB}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{92195734-03A0-4C49-94D5-B6D480F9E7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E450A56-5033-4DBA-9F9B-A7159EC03195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3447C142-C94F-4A3E-B269-49519AF03B62}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>180.34256231243154</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B361E8AE-B989-4829-B28D-CB2453A16D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B9AB8-517E-4660-979E-6D1642D3AE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{92195734-03A0-4C49-94D5-B6D480F9E7A7}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{D6DB929C-7D41-42A1-BB6A-30EAC449B176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3447C142-C94F-4A3E-B269-49519AF03B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E31668A-3E76-4702-B872-030110670B56}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
